--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\git\FANMerge\FAN-Merge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Fan\TelecomProyectoFAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F75C5D-442B-4355-9E4B-F466E30DE2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="298">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -225,6 +224,9 @@
     <t>Newton</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Alta Linea Existe OfCom Debito</t>
   </si>
   <si>
@@ -913,36 +915,12 @@
   </si>
   <si>
     <t>Pack 5000 Min todo destino</t>
-  </si>
-  <si>
-    <t>68547962</t>
-  </si>
-  <si>
-    <t>2932523204</t>
-  </si>
-  <si>
-    <t>35879512</t>
-  </si>
-  <si>
-    <t>2932523247</t>
-  </si>
-  <si>
-    <t>0524</t>
-  </si>
-  <si>
-    <t>11120000009304</t>
-  </si>
-  <si>
-    <t>11120000009306</t>
-  </si>
-  <si>
-    <t>0102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21">
     <font>
       <sz val="10"/>
@@ -1324,6 +1302,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1455,6 +1434,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,19 +1465,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1774,25 +1752,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
@@ -1800,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1830,46 +1808,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1903,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>34</v>
@@ -1953,7 +1931,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>34</v>
@@ -2026,7 +2004,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -2062,19 +2040,19 @@
         <v>35</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>39</v>
@@ -2092,12 +2070,12 @@
         <v>65</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="44" customFormat="1" ht="12.75" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -2106,19 +2084,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2140,29 +2118,29 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" s="39" customFormat="1">
-      <c r="A7" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>175</v>
+      <c r="A7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>111</v>
-      </c>
       <c r="F7" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -2170,34 +2148,34 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:26" s="39" customFormat="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>207</v>
+      <c r="B8" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2221,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -2230,46 +2208,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2296,14 +2274,14 @@
       <c r="H10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>89</v>
+      <c r="I10" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>34</v>
@@ -2319,7 +2297,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
@@ -2337,108 +2315,108 @@
       <c r="G11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="45" t="s">
-        <v>89</v>
+      <c r="J11" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="69" t="s">
-        <v>80</v>
+      <c r="P11" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="69" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="R11" s="70" t="s">
+        <v>85</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="71" t="s">
+      <c r="T11" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="71" t="s">
+      <c r="V11" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="71" t="s">
+      <c r="W11" s="72" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="72" t="s">
+      <c r="Y11" s="73" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="39" customFormat="1">
-      <c r="A12" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>89</v>
+      <c r="I12" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
+        <v>169</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -2458,14 +2436,14 @@
       <c r="H13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>89</v>
+      <c r="I13" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
@@ -2481,7 +2459,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2490,22 +2468,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -2531,14 +2509,14 @@
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>207</v>
+      <c r="B15" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2554,38 +2532,38 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:26" s="39" customFormat="1">
-      <c r="A16" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>207</v>
+      <c r="A16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="52" t="s">
+      <c r="D16" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:26" s="44" customFormat="1" ht="12.75" customHeight="1">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -2606,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
@@ -2615,13 +2593,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="36"/>
@@ -2638,48 +2616,48 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" s="39" customFormat="1">
-      <c r="A18" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="48" t="s">
+      <c r="A18" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="H18" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="I18" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
+      <c r="J18" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:26" s="39" customFormat="1">
-      <c r="A19" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="A19" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -2691,37 +2669,37 @@
       <c r="E19" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="45" t="s">
-        <v>75</v>
+      <c r="H19" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L19" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -2751,13 +2729,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="36"/>
@@ -2774,336 +2752,336 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D21" s="86" t="s">
+      <c r="A21" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="D21" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="F21" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="87">
+        <v>1524</v>
+      </c>
+      <c r="M21" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="87">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+    </row>
+    <row r="23" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A23" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="87">
+        <v>1524</v>
+      </c>
+      <c r="M24" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A25" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="94" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="87">
+        <v>1524</v>
+      </c>
+      <c r="N25" s="87">
+        <v>1524</v>
+      </c>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A26" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="86">
-        <v>1524</v>
-      </c>
-      <c r="M21" s="86">
-        <v>1524</v>
-      </c>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="86" t="s">
+      <c r="D27" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="86">
-        <v>1524</v>
-      </c>
-      <c r="M22" s="86">
-        <v>1524</v>
-      </c>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A23" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H23" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="86" t="s">
+      <c r="G27" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H24" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="86">
-        <v>1524</v>
-      </c>
-      <c r="M24" s="86">
-        <v>1524</v>
-      </c>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A25" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="H25" s="93" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="86">
-        <v>1524</v>
-      </c>
-      <c r="N25" s="86">
-        <v>1524</v>
-      </c>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A26" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="F27" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -3118,46 +3096,46 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="I28" s="48" t="s">
+      <c r="H28" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="K28" s="48" t="s">
+      <c r="J28" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="K28" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="48"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -3171,41 +3149,41 @@
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1">
+    <row r="29" spans="1:26" ht="13.8" thickBot="1">
       <c r="B29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="13.5" thickBot="1">
-      <c r="G30" s="87"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="E31" s="87"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B32" s="86"/>
-      <c r="G32" s="87"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.8" thickBot="1">
+      <c r="G30" s="88"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.8" thickBot="1">
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="E31" s="88"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.8" thickBot="1">
+      <c r="B32" s="87"/>
+      <c r="G32" s="88"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" display="malannominacion@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H21" r:id="rId10" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4" display="malannominacion@gmail.com"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G19" r:id="rId9"/>
+    <hyperlink ref="H21" r:id="rId10" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com"/>
+    <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com"/>
+    <hyperlink ref="I25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
+    <hyperlink ref="H27" r:id="rId15"/>
+    <hyperlink ref="H28" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3213,48 +3191,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" customWidth="1"/>
+    <col min="16" max="26" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="80" t="s">
+      <c r="D1" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="E1" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3275,240 +3253,240 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="84">
+      <c r="B2" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="85">
         <v>1161138551</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84">
+      <c r="B3" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85">
         <v>1161138552</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-    </row>
-    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="E6" s="83"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:26" s="65" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+    </row>
+    <row r="10" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-    </row>
-    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-    </row>
-    <row r="8" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-    </row>
-    <row r="9" spans="1:26" s="64" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="83" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C14" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-    </row>
-    <row r="10" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-    </row>
-    <row r="11" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-    </row>
-    <row r="12" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-    </row>
-    <row r="13" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="D14" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -3540,7 +3518,7 @@
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
@@ -3549,29 +3527,29 @@
         <v>13</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>171</v>
+      <c r="B17" s="48" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3599,43 +3577,41 @@
     </row>
     <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>298</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>298</v>
+        <v>78</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="D21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -3660,139 +3636,133 @@
     </row>
     <row r="22" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>299</v>
+        <v>148</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" s="112" t="s">
-        <v>301</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
+        <v>64</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
     </row>
     <row r="23" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="112" t="s">
+      <c r="D23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
     </row>
     <row r="24" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="112" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
+        <v>168</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
     </row>
     <row r="25" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>300</v>
+      <c r="B25" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -3818,54 +3788,54 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" s="106" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B27" s="73" t="s">
+    <row r="27" spans="1:26" s="109" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="104"/>
-      <c r="V27" s="104"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
+      <c r="C27" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
+      <c r="U27" s="107"/>
+      <c r="V27" s="107"/>
+      <c r="W27" s="107"/>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="107"/>
+      <c r="Z27" s="107"/>
     </row>
     <row r="28" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>222</v>
+        <v>92</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
@@ -3897,15 +3867,15 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
@@ -3937,15 +3907,15 @@
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
@@ -3977,15 +3947,15 @@
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
@@ -4017,21 +3987,15 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>178</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
@@ -4061,210 +4025,228 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="105" t="s">
-        <v>269</v>
+    <row r="38" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="108" t="s">
+        <v>270</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
-      <c r="U38" s="104"/>
-      <c r="V38" s="104"/>
-      <c r="W38" s="104"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-    </row>
-    <row r="39" spans="1:26" ht="15" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39">
+        <v>271</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="107"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+    </row>
+    <row r="39" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+    </row>
+    <row r="40" spans="1:26" ht="15" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40">
         <v>30998801</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="1:26" ht="15" customHeight="1">
+      <c r="A42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-    </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="D43" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" t="s">
         <v>200</v>
       </c>
-      <c r="G42" t="s">
-        <v>198</v>
-      </c>
-      <c r="H42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="44" spans="1:26" ht="15" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="74"/>
-    </row>
-    <row r="44" spans="1:26" ht="15" customHeight="1">
-      <c r="A44" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="75"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="59" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="59"/>
+    </row>
+    <row r="46" spans="1:26" ht="15" customHeight="1">
+      <c r="A46" s="59" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="79" t="s">
+      <c r="D47" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="79" t="s">
+      <c r="E47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="80" t="s">
         <v>256</v>
       </c>
-      <c r="H46" s="94"/>
-    </row>
-    <row r="47" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="G47" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:26" ht="15" customHeight="1">
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>258</v>
       </c>
@@ -4276,80 +4258,94 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="101"/>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>253</v>
+      <c r="C52" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B54" s="10" t="s">
+      <c r="C53" s="104"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
-      <c r="A55" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4359,69 +4355,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="44" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -4438,40 +4434,40 @@
     </row>
     <row r="2" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>207</v>
+        <v>91</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="F2" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>279</v>
+        <v>268</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>280</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>20</v>
@@ -4483,14 +4479,14 @@
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>299</v>
+      <c r="B3" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>300</v>
+        <v>67</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -4501,25 +4497,25 @@
     </row>
     <row r="4" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>207</v>
+        <v>82</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>179</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>180</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>111</v>
-      </c>
       <c r="G4" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="30">
         <v>1</v>
@@ -4528,7 +4524,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>21</v>
@@ -4537,12 +4533,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4558,11 +4554,11 @@
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>207</v>
+      <c r="B6" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -4571,18 +4567,18 @@
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>220</v>
+      <c r="B7" s="64" t="s">
+        <v>221</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -4591,40 +4587,40 @@
         <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4640,346 +4636,346 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="A9" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-    </row>
-    <row r="10" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="107" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="111">
+        <v>6</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" s="112" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="111">
+        <v>6</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O11" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="111">
+        <v>6</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O12" s="113" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A17" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="60"/>
+      <c r="P18" s="57"/>
+    </row>
+    <row r="19" spans="1:27" ht="15">
+      <c r="A19" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="E10" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="59" t="s">
+      <c r="B19" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="108">
-        <v>6</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="M10" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="O10" s="110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="108">
-        <v>6</v>
-      </c>
-      <c r="K11" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="M11" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="O11" s="110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="108">
-        <v>6</v>
-      </c>
-      <c r="K12" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="O12" s="110" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-    </row>
-    <row r="14" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G14" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" ht="15" thickBot="1">
-      <c r="A17" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="59"/>
-      <c r="P18" s="56"/>
-    </row>
-    <row r="19" spans="1:27" ht="14.25">
-      <c r="A19" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
@@ -4988,37 +4984,37 @@
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="4"/>
@@ -5034,15 +5030,15 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.9" customHeight="1">
+    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>179</v>
+        <v>95</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>180</v>
       </c>
       <c r="D21" s="29"/>
       <c r="F21" s="29"/>
@@ -5056,15 +5052,15 @@
       <c r="N21" s="32"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="1:27" s="64" customFormat="1" ht="13.9" customHeight="1">
+    <row r="22" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>180</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -5082,18 +5078,18 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
     </row>
-    <row r="23" spans="1:27" s="64" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
-      <c r="A23" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>179</v>
+    <row r="23" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A23" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>180</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>28</v>
@@ -5102,137 +5098,137 @@
         <v>29</v>
       </c>
       <c r="G23" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="101"/>
+    </row>
+    <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="97" t="s">
+      <c r="E25" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="H25" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="I25" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="J25" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="M23" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="N23" s="59" t="s">
+      <c r="L25" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="P23" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-    </row>
-    <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="H25" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="J25" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="N25" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="P25" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="86">
+      <c r="Q25" s="87">
         <v>33332010</v>
       </c>
-      <c r="R25" s="113" t="s">
-        <v>268</v>
-      </c>
-      <c r="S25" s="114"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
+      <c r="R25" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="S25" s="103"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -5241,37 +5237,37 @@
         <v>16</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="4"/>
@@ -5288,62 +5284,62 @@
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="51"/>
-    </row>
-    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="B27" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="52"/>
+    </row>
+    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A28" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="51"/>
+      <c r="B28" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="E29" s="59" t="s">
+      <c r="A29" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="E29" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="F29" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="59" t="s">
-        <v>279</v>
+        <v>268</v>
+      </c>
+      <c r="I29" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>280</v>
       </c>
       <c r="L29" s="31" t="s">
         <v>21</v>
@@ -5352,51 +5348,51 @@
         <v>65</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="E30" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="F30" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="J30" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" s="66" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="27" t="s">
         <v>65</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
@@ -5415,9 +5411,9 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="33" spans="2:3" ht="14.25">
+    <row r="33" spans="2:3" ht="15">
       <c r="B33" s="27"/>
-      <c r="C33" s="63"/>
+      <c r="C33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Fan\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\git\FANMerge\FAN-Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F75C5D-442B-4355-9E4B-F466E30DE2FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="305">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -224,9 +225,6 @@
     <t>Newton</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>Alta Linea Existe OfCom Debito</t>
   </si>
   <si>
@@ -915,12 +913,36 @@
   </si>
   <si>
     <t>Pack 5000 Min todo destino</t>
+  </si>
+  <si>
+    <t>68547962</t>
+  </si>
+  <si>
+    <t>2932523204</t>
+  </si>
+  <si>
+    <t>35879512</t>
+  </si>
+  <si>
+    <t>2932523247</t>
+  </si>
+  <si>
+    <t>0524</t>
+  </si>
+  <si>
+    <t>11120000009304</t>
+  </si>
+  <si>
+    <t>11120000009306</t>
+  </si>
+  <si>
+    <t>0102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="10"/>
@@ -1302,7 +1324,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1434,12 +1455,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,12 +1480,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1752,25 +1774,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
@@ -1778,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1808,46 +1830,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1881,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>34</v>
@@ -1931,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>34</v>
@@ -2004,7 +2026,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -2040,19 +2062,19 @@
         <v>35</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>39</v>
@@ -2070,12 +2092,12 @@
         <v>65</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="44" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -2084,19 +2106,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2118,29 +2140,29 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" s="39" customFormat="1">
-      <c r="A7" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>176</v>
+      <c r="A7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>175</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -2148,34 +2170,34 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="1:26" s="39" customFormat="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="74" t="s">
-        <v>208</v>
+      <c r="B8" s="73" t="s">
+        <v>207</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2199,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -2208,46 +2230,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2274,14 +2296,14 @@
       <c r="H10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>90</v>
+      <c r="I10" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>34</v>
@@ -2297,7 +2319,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
@@ -2315,108 +2337,108 @@
       <c r="G11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="65" t="s">
+      <c r="I11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="46" t="s">
-        <v>90</v>
+      <c r="J11" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="70" t="s">
-        <v>81</v>
+      <c r="P11" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" s="70" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="R11" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="T11" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="U11" s="72" t="s">
+      <c r="T11" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="72" t="s">
+      <c r="V11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="72" t="s">
+      <c r="W11" s="71" t="s">
         <v>41</v>
       </c>
       <c r="X11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="73" t="s">
+      <c r="Y11" s="72" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="39" customFormat="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="D12" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="49" t="s">
+      <c r="G12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="H12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>90</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
+        <v>168</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -2436,14 +2458,14 @@
       <c r="H13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>90</v>
+      <c r="I13" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
@@ -2459,7 +2481,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2468,22 +2490,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -2509,14 +2531,14 @@
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="74" t="s">
-        <v>208</v>
+      <c r="B15" s="73" t="s">
+        <v>207</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2532,38 +2554,38 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:26" s="39" customFormat="1">
-      <c r="A16" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>208</v>
+      <c r="A16" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>207</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="53" t="s">
+      <c r="D16" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" spans="1:26" s="44" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -2584,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
@@ -2593,13 +2615,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="36"/>
@@ -2616,48 +2638,48 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" s="39" customFormat="1">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="1:26" s="39" customFormat="1">
+      <c r="A19" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="1:26" s="39" customFormat="1">
-      <c r="A19" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -2669,37 +2691,37 @@
       <c r="E19" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="46" t="s">
-        <v>76</v>
+      <c r="H19" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="49" t="s">
+      <c r="L19" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -2729,13 +2751,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="36"/>
@@ -2752,336 +2774,336 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B22" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+    </row>
+    <row r="23" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A23" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A25" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="87" t="s">
+      <c r="E25" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="87" t="s">
+      <c r="F25" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="87" t="s">
+      <c r="G25" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="87" t="s">
+      <c r="K25" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="87">
+      <c r="M25" s="86">
         <v>1524</v>
       </c>
-      <c r="M21" s="87">
+      <c r="N25" s="86">
         <v>1524</v>
       </c>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="87" t="s">
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="87">
-        <v>1524</v>
-      </c>
-      <c r="M22" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A23" s="87" t="s">
+      <c r="E26" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="87" t="s">
+      <c r="E27" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="87" t="s">
+      <c r="F27" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="87">
-        <v>1524</v>
-      </c>
-      <c r="M24" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H25" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N25" s="87">
-        <v>1524</v>
-      </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A26" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -3096,46 +3118,46 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" s="49" t="s">
+      <c r="G28" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="49" t="s">
+      <c r="J28" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="M28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="48"/>
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -3149,41 +3171,41 @@
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" thickBot="1">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1">
       <c r="B29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="13.8" thickBot="1">
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="E31" s="88"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B32" s="87"/>
-      <c r="G32" s="88"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.5" thickBot="1">
+      <c r="G30" s="87"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.5" thickBot="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="E31" s="87"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.5" thickBot="1">
+      <c r="B32" s="86"/>
+      <c r="G32" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="H3" r:id="rId4" display="malannominacion@gmail.com"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="G10" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
-    <hyperlink ref="G12" r:id="rId8"/>
-    <hyperlink ref="G19" r:id="rId9"/>
-    <hyperlink ref="H21" r:id="rId10" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com"/>
-    <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com"/>
-    <hyperlink ref="I25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com"/>
-    <hyperlink ref="H27" r:id="rId15"/>
-    <hyperlink ref="H28" r:id="rId16"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H3" r:id="rId4" display="malannominacion@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H21" r:id="rId10" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H22" r:id="rId11" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H23" r:id="rId12" display="mailto:Nodocnominado@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H24" r:id="rId13" display="mailto:Torrecaida@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I25" r:id="rId14" display="mailto:Nominacionautoma@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -3191,48 +3213,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.109375" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3253,240 +3275,240 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="84">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84">
+        <v>1161138552</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:26" s="64" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="85">
-        <v>1161138551</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="B9" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85">
-        <v>1161138552</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="83" t="s">
+      <c r="B10" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:26" s="64" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:26" s="65" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="84" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="D14" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -3518,7 +3540,7 @@
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
@@ -3527,29 +3549,29 @@
         <v>13</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>172</v>
+      <c r="B17" s="47" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3577,41 +3599,43 @@
     </row>
     <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>210</v>
+        <v>78</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>210</v>
+        <v>77</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>298</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -3636,133 +3660,139 @@
     </row>
     <row r="22" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>61</v>
+        <v>147</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
+        <v>302</v>
+      </c>
+      <c r="E22" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
     </row>
     <row r="23" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="E23" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
     </row>
     <row r="24" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
+        <v>167</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="112" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
     </row>
     <row r="25" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>210</v>
+      <c r="B25" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>300</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -3788,54 +3818,54 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" s="109" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="61" t="s">
+    <row r="27" spans="1:26" s="106" customFormat="1" ht="12" customHeight="1">
+      <c r="A27" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="C27" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
     </row>
     <row r="28" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
@@ -3867,15 +3897,15 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
@@ -3907,15 +3937,15 @@
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
@@ -3947,15 +3977,15 @@
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
@@ -3987,15 +4017,21 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
+        <v>177</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
@@ -4025,228 +4061,210 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="108" t="s">
+    <row r="38" spans="1:26" s="49" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-    </row>
-    <row r="39" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
-    </row>
-    <row r="40" spans="1:26" ht="15" customHeight="1">
-      <c r="A40" s="13" t="s">
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+    </row>
+    <row r="39" spans="1:26" ht="15" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39">
+        <v>30998801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="58" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B40">
-        <v>30998801</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:26" ht="15" customHeight="1">
+      <c r="A41" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15" customHeight="1">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="1:26" ht="15" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1">
-      <c r="A43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" t="s">
-        <v>200</v>
-      </c>
+      <c r="C43" s="74"/>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="75"/>
+      <c r="B44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="58"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="58" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="58" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="H46" s="94"/>
+    </row>
+    <row r="47" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" s="95"/>
-    </row>
-    <row r="48" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="C47" s="9"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>258</v>
       </c>
@@ -4258,94 +4276,80 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="101"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="59" t="s">
-        <v>279</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="104"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C53" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1">
+      <c r="A55" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="B55" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4355,69 +4359,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:27" s="44" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -4434,40 +4438,40 @@
     </row>
     <row r="2" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>208</v>
+        <v>90</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="G2" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="H2" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>280</v>
+      <c r="J2" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>20</v>
@@ -4479,14 +4483,14 @@
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>208</v>
+      <c r="B3" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>180</v>
+        <v>79</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>300</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -4497,25 +4501,25 @@
     </row>
     <row r="4" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="30">
         <v>1</v>
@@ -4524,7 +4528,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>21</v>
@@ -4533,12 +4537,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4554,11 +4558,11 @@
       <c r="A6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>208</v>
+      <c r="B6" s="63" t="s">
+        <v>207</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -4567,18 +4571,18 @@
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -4587,40 +4591,40 @@
         <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4636,346 +4640,346 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+    </row>
+    <row r="10" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="61" t="s">
+      <c r="B10" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="108">
+        <v>6</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="M10" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="O10" s="110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-    </row>
-    <row r="10" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="110" t="s">
+      <c r="E11" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="108">
+        <v>6</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="M11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="O11" s="110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="G12" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="H12" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="J12" s="108">
+        <v>6</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="O12" s="110" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+    </row>
+    <row r="14" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J10" s="111">
-        <v>6</v>
-      </c>
-      <c r="K10" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O10" s="113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="61" t="s">
+    </row>
+    <row r="15" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="60" t="s">
+      <c r="E16" s="23"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="15" thickBot="1">
+      <c r="A17" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A18" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="59"/>
+      <c r="P18" s="56"/>
+    </row>
+    <row r="19" spans="1:27" ht="14.25">
+      <c r="A19" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="111">
-        <v>6</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M11" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" s="111">
-        <v>6</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O12" s="113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-    </row>
-    <row r="14" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="60"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
-      <c r="A17" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="17"/>
-    </row>
-    <row r="18" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="60"/>
-      <c r="P18" s="57"/>
-    </row>
-    <row r="19" spans="1:27" ht="15">
-      <c r="A19" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
@@ -4984,37 +4988,37 @@
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="N20" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="4"/>
@@ -5030,15 +5034,15 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
+    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.9" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>180</v>
+        <v>94</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>179</v>
       </c>
       <c r="D21" s="29"/>
       <c r="F21" s="29"/>
@@ -5052,15 +5056,15 @@
       <c r="N21" s="32"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1">
+    <row r="22" spans="1:27" s="64" customFormat="1" ht="13.9" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="64" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>179</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -5078,18 +5082,18 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
     </row>
-    <row r="23" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A23" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>180</v>
+    <row r="23" spans="1:27" s="64" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
+      <c r="A23" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>179</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>28</v>
@@ -5098,137 +5102,137 @@
         <v>29</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="I23" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="J23" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="J23" s="98" t="s">
+      <c r="K23" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="M23" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="P23" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+    </row>
+    <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A25" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L25" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M25" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="86">
+        <v>33332010</v>
+      </c>
+      <c r="R25" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="M23" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="N23" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="P23" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
-    </row>
-    <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="H25" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="N25" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="O25" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="P25" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="87">
-        <v>33332010</v>
-      </c>
-      <c r="R25" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="S25" s="103"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
+      <c r="S25" s="114"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -5237,37 +5241,37 @@
         <v>16</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="N26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="4"/>
@@ -5284,62 +5288,62 @@
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="52"/>
-    </row>
-    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="B27" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A28" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="52"/>
+      <c r="B28" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="98" t="s">
+      <c r="A29" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="F29" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="G29" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="J29" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="60" t="s">
-        <v>280</v>
+      <c r="I29" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="59" t="s">
+        <v>279</v>
       </c>
       <c r="L29" s="31" t="s">
         <v>21</v>
@@ -5348,51 +5352,51 @@
         <v>65</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="F30" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="G30" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="G30" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="L30" s="66" t="s">
+      <c r="I30" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" s="65" t="s">
         <v>21</v>
       </c>
       <c r="M30" s="27" t="s">
         <v>65</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
@@ -5411,9 +5415,9 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="33" spans="2:3" ht="15">
+    <row r="33" spans="2:3" ht="14.25">
       <c r="B33" s="27"/>
-      <c r="C33" s="64"/>
+      <c r="C33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto Fan\TelecomProyectoFAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xappiens\Sit02\FAN-Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Altas y Nominacion" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="307">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Newton</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>Alta Linea Existe OfCom Debito</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>Vista 360</t>
   </si>
   <si>
-    <t>Emma Valentina Miranda</t>
-  </si>
-  <si>
     <t>22222035</t>
   </si>
   <si>
@@ -758,9 +752,6 @@
     <t>Gestion Servcio Tecnico IMEI</t>
   </si>
   <si>
-    <t>3574409493</t>
-  </si>
-  <si>
     <t>Gestion Base de Conocimiento</t>
   </si>
   <si>
@@ -915,13 +906,49 @@
   </si>
   <si>
     <t>Pack 5000 Min todo destino</t>
+  </si>
+  <si>
+    <t>98876765</t>
+  </si>
+  <si>
+    <t>Juan Seucucaeeu</t>
+  </si>
+  <si>
+    <t>2932523103</t>
+  </si>
+  <si>
+    <t>Vista_2 360</t>
+  </si>
+  <si>
+    <t>ou@gmail.com</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Nps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefono Alternativo </t>
+  </si>
+  <si>
+    <t>Puntos Club Peronal</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>35879512</t>
+  </si>
+  <si>
+    <t>2932523247</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1043,6 +1070,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF090909"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1211,7 +1250,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,9 +1408,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,12 +1462,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,6 +1494,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1759,18 +1798,18 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
@@ -1778,7 +1817,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1808,46 +1847,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="N1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1881,7 +1920,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>34</v>
@@ -1931,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>34</v>
@@ -2004,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -2040,19 +2079,19 @@
         <v>35</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>39</v>
@@ -2070,12 +2109,12 @@
         <v>65</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -2084,19 +2123,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2119,28 +2158,28 @@
     </row>
     <row r="7" spans="1:26" s="39" customFormat="1">
       <c r="A7" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -2156,7 +2195,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>2</v>
@@ -2175,7 +2214,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
@@ -2199,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -2208,46 +2247,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="O9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="T9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="X9" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="Y9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z9" s="4"/>
     </row>
@@ -2275,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>34</v>
@@ -2297,7 +2336,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" t="s">
@@ -2322,37 +2361,37 @@
         <v>29</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="38" t="s">
         <v>35</v>
       </c>
       <c r="P11" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>42</v>
       </c>
       <c r="T11" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U11" s="72" t="s">
         <v>39</v>
@@ -2372,10 +2411,10 @@
     </row>
     <row r="12" spans="1:26" s="39" customFormat="1">
       <c r="A12" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>66</v>
@@ -2384,22 +2423,22 @@
         <v>10</v>
       </c>
       <c r="F12" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>88</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>89</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="49"/>
@@ -2416,7 +2455,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -2437,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
@@ -2459,7 +2498,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2468,22 +2507,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>15</v>
@@ -2510,13 +2549,13 @@
         <v>44</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
@@ -2533,16 +2572,16 @@
     </row>
     <row r="16" spans="1:26" s="39" customFormat="1">
       <c r="A16" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>28</v>
@@ -2563,7 +2602,7 @@
     </row>
     <row r="17" spans="1:26" s="45" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -2584,7 +2623,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>14</v>
@@ -2593,13 +2632,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="36"/>
@@ -2617,34 +2656,34 @@
     </row>
     <row r="18" spans="1:26" s="39" customFormat="1">
       <c r="A18" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="I18" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="J18" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>73</v>
       </c>
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
@@ -2655,7 +2694,7 @@
     </row>
     <row r="19" spans="1:26" s="39" customFormat="1">
       <c r="A19" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>60</v>
@@ -2676,13 +2715,13 @@
         <v>48</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="46" t="s">
         <v>34</v>
@@ -2699,7 +2738,7 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -2729,13 +2768,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="36"/>
@@ -2752,329 +2791,329 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M21" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M22" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+    </row>
+    <row r="23" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A23" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B23" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A24" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="M24" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A25" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="I25" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="86">
+        <v>1524</v>
+      </c>
+      <c r="N25" s="86">
+        <v>1524</v>
+      </c>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.5" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="87" t="s">
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="87">
-        <v>1524</v>
-      </c>
-      <c r="M21" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-    </row>
-    <row r="22" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="87">
-        <v>1524</v>
-      </c>
-      <c r="M22" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A23" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="87" t="s">
+      <c r="G27" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H27" s="92" t="s">
         <v>229</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="K24" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="87">
-        <v>1524</v>
-      </c>
-      <c r="M24" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H25" s="94" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="87">
-        <v>1524</v>
-      </c>
-      <c r="N25" s="87">
-        <v>1524</v>
-      </c>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-    </row>
-    <row r="26" spans="1:26" ht="13.8" thickBot="1">
-      <c r="A26" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="93" t="s">
-        <v>231</v>
       </c>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
@@ -3096,17 +3135,17 @@
       <c r="Z27" s="39"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="D28" s="49" t="s">
         <v>240</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>242</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>66</v>
@@ -3115,16 +3154,16 @@
         <v>10</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I28" s="49" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" s="49" t="s">
         <v>34</v>
@@ -3149,22 +3188,22 @@
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
     </row>
-    <row r="29" spans="1:26" ht="13.8" thickBot="1">
+    <row r="29" spans="1:26" ht="13.5" thickBot="1">
       <c r="B29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="13.8" thickBot="1">
-      <c r="G30" s="88"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="E31" s="88"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.8" thickBot="1">
-      <c r="B32" s="87"/>
-      <c r="G32" s="88"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.5" thickBot="1">
+      <c r="G30" s="87"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.5" thickBot="1">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="E31" s="87"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.5" thickBot="1">
+      <c r="B32" s="86"/>
+      <c r="G32" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3192,47 +3231,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.109375" customWidth="1"/>
+    <col min="16" max="26" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3253,240 +3294,240 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="D2" s="84">
+        <v>1161138551</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84">
+        <v>1161138552</v>
+      </c>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="84"/>
+      <c r="E5" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:26" s="65" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D2" s="85">
-        <v>1161138551</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="B11" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85">
-        <v>1161138552</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="83" t="s">
+      <c r="B12" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="85" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" spans="1:26" s="65" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="83" t="s">
+      <c r="B14" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="83" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="1:26" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="D14" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
@@ -3518,7 +3559,7 @@
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>61</v>
@@ -3527,10 +3568,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
@@ -3538,18 +3579,18 @@
         <v>49</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
@@ -3577,39 +3618,39 @@
     </row>
     <row r="19" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>208</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="75" t="s">
         <v>208</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>210</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -3636,7 +3677,7 @@
     </row>
     <row r="22" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>61</v>
@@ -3672,7 +3713,7 @@
     </row>
     <row r="23" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>61</v>
@@ -3708,7 +3749,7 @@
     </row>
     <row r="24" spans="1:26" s="39" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>61</v>
@@ -3747,22 +3788,22 @@
         <v>62</v>
       </c>
       <c r="B25" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="75" t="s">
         <v>208</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>210</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
@@ -3788,54 +3829,54 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" s="109" customFormat="1" ht="12" customHeight="1">
+    <row r="27" spans="1:26" s="106" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
+        <v>271</v>
+      </c>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
     </row>
     <row r="28" spans="1:26" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
@@ -3867,15 +3908,15 @@
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="12" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
@@ -3907,15 +3948,15 @@
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="12" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
@@ -3947,15 +3988,15 @@
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>0</v>
@@ -3987,15 +4028,15 @@
     </row>
     <row r="36" spans="1:26" ht="15" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
@@ -4026,72 +4067,72 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="108" t="s">
-        <v>270</v>
+      <c r="A38" s="105" t="s">
+        <v>267</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
+        <v>268</v>
+      </c>
+      <c r="C38" s="101"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
     </row>
     <row r="39" spans="1:26" s="50" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
+        <v>268</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="104"/>
     </row>
     <row r="40" spans="1:26" ht="15" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40">
         <v>30998801</v>
@@ -4099,13 +4140,13 @@
     </row>
     <row r="41" spans="1:26" s="59" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>3</v>
@@ -4114,13 +4155,13 @@
         <v>4</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -4143,126 +4184,158 @@
     </row>
     <row r="42" spans="1:26" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" t="s">
         <v>194</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" t="s">
         <v>197</v>
-      </c>
-      <c r="H42" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1">
       <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="C43" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
         <v>199</v>
-      </c>
-      <c r="E43" t="s">
-        <v>199</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" s="79" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1">
       <c r="A45" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="113"/>
+    </row>
+    <row r="46" spans="1:26" s="59" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:26" ht="15" customHeight="1">
+      <c r="A47" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="59"/>
-    </row>
-    <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" ht="15" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="114"/>
+    </row>
+    <row r="48" spans="1:26" ht="15" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C48" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="94"/>
+    </row>
+    <row r="49" spans="1:8" s="39" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" s="95"/>
-    </row>
-    <row r="48" spans="1:26" s="39" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>61</v>
@@ -4272,80 +4345,96 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="50" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="104"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C53" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="50" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B54" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="108" t="s">
-        <v>277</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>224</v>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1">
+      <c r="A57" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="B57" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4358,66 +4447,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="45" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="O1" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -4434,40 +4523,40 @@
     </row>
     <row r="2" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>265</v>
+        <v>179</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H2" s="60" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>20</v>
@@ -4479,14 +4568,14 @@
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>208</v>
+      <c r="B3" s="112" t="s">
+        <v>305</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -4497,25 +4586,25 @@
     </row>
     <row r="4" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="30">
         <v>1</v>
@@ -4524,7 +4613,7 @@
         <v>2019</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>21</v>
@@ -4533,12 +4622,12 @@
         <v>19784521</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -4555,12 +4644,12 @@
         <v>31</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D6" s="113"/>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1">
@@ -4568,17 +4657,17 @@
         <v>32</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -4587,40 +4676,40 @@
         <v>16</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="O8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -4637,13 +4726,13 @@
     </row>
     <row r="9" spans="1:27" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>43</v>
@@ -4661,158 +4750,158 @@
       <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="87" t="s">
-        <v>284</v>
+      <c r="A10" s="86" t="s">
+        <v>281</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>265</v>
+        <v>179</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J10" s="111">
+        <v>265</v>
+      </c>
+      <c r="J10" s="108">
         <v>6</v>
       </c>
       <c r="K10" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10" s="112" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="109" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O10" s="113" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="O10" s="110" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="62" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>265</v>
+      <c r="E11" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="111">
+        <v>265</v>
+      </c>
+      <c r="J11" s="108">
         <v>6</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" s="66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M11" s="60" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O11" s="113" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="O11" s="110" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="62" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>265</v>
+        <v>202</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H12" s="60" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="J12" s="111">
+        <v>265</v>
+      </c>
+      <c r="J12" s="108">
         <v>6</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M12" s="60" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="O12" s="113" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="O12" s="110" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="62" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="24"/>
@@ -4820,30 +4909,30 @@
       <c r="K13" s="66"/>
       <c r="L13" s="66"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
     </row>
     <row r="14" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>265</v>
+        <v>164</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>42</v>
@@ -4851,38 +4940,38 @@
     </row>
     <row r="15" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>265</v>
+        <v>164</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="H15" s="60"/>
       <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>43</v>
@@ -4891,18 +4980,18 @@
       <c r="G16" s="58"/>
       <c r="H16" s="60"/>
     </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" ht="15.6" thickBot="1">
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="15" thickBot="1">
       <c r="A17" s="61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
@@ -4919,33 +5008,33 @@
     </row>
     <row r="18" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>220</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="60"/>
       <c r="P18" s="57"/>
     </row>
-    <row r="19" spans="1:27" ht="15">
+    <row r="19" spans="1:27" ht="14.25">
       <c r="A19" s="62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -4975,7 +5064,7 @@
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
@@ -4984,37 +5073,37 @@
         <v>16</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="N20" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="4"/>
@@ -5030,15 +5119,15 @@
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.8" customHeight="1">
+    <row r="21" spans="1:27" s="30" customFormat="1" ht="13.9" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="29"/>
       <c r="F21" s="29"/>
@@ -5052,15 +5141,15 @@
       <c r="N21" s="32"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1">
+    <row r="22" spans="1:27" s="65" customFormat="1" ht="13.9" customHeight="1">
       <c r="A22" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -5078,18 +5167,18 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
     </row>
-    <row r="23" spans="1:27" s="65" customFormat="1" ht="13.8" customHeight="1" thickBot="1">
+    <row r="23" spans="1:27" s="65" customFormat="1" ht="13.9" customHeight="1" thickBot="1">
       <c r="A23" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>28</v>
@@ -5098,31 +5187,31 @@
         <v>29</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="98" t="s">
-        <v>265</v>
+        <v>173</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="J23" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="J23" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="K23" s="60" t="s">
         <v>42</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N23" s="60" t="s">
         <v>21</v>
       </c>
       <c r="O23" s="60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P23" s="66" t="s">
         <v>21</v>
@@ -5131,92 +5220,92 @@
         <v>61</v>
       </c>
       <c r="R23" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="63" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
+        <v>258</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="95"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
     </row>
     <row r="25" spans="1:27" s="30" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="96" t="s">
+      <c r="I25" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="98" t="s">
+      <c r="J25" s="97" t="s">
         <v>264</v>
-      </c>
-      <c r="H25" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="I25" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="98" t="s">
-        <v>267</v>
       </c>
       <c r="K25" s="60" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N25" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="P25" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="P25" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="Q25" s="87">
+      <c r="Q25" s="86">
         <v>33332010</v>
       </c>
-      <c r="R25" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="S25" s="103"/>
+      <c r="R25" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="S25" s="116"/>
       <c r="T25" s="65"/>
       <c r="U25" s="65"/>
       <c r="V25" s="65"/>
@@ -5228,7 +5317,7 @@
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
@@ -5237,37 +5326,37 @@
         <v>16</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="N26" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="4"/>
@@ -5288,58 +5377,58 @@
         <v>24</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="52"/>
     </row>
-    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.2" customHeight="1">
+    <row r="28" spans="1:27" s="39" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="98" t="s">
-        <v>265</v>
+        <v>179</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="F29" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="F29" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="G29" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J29" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K29" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L29" s="31" t="s">
         <v>21</v>
@@ -5348,42 +5437,42 @@
         <v>65</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="98" t="s">
-        <v>265</v>
+        <v>179</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>262</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="98" t="s">
-        <v>267</v>
+        <v>263</v>
+      </c>
+      <c r="F30" s="97" t="s">
+        <v>264</v>
       </c>
       <c r="G30" s="60" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J30" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K30" s="60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L30" s="66" t="s">
         <v>21</v>
@@ -5392,7 +5481,7 @@
         <v>65</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
@@ -5411,7 +5500,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="33" spans="2:3" ht="15">
+    <row r="33" spans="2:3" ht="14.25">
       <c r="B33" s="27"/>
       <c r="C33" s="64"/>
     </row>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="339">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>Ron</t>
+  </si>
+  <si>
+    <t>3471586298</t>
   </si>
 </sst>
 </file>
@@ -3927,14 +3930,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
     <col min="10" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -3987,7 +3990,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>197</v>
@@ -4449,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="857" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="alta de linea" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="345">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Alta Linea Agente</t>
   </si>
   <si>
-    <t>Tom Riddle</t>
-  </si>
-  <si>
     <t>DNI</t>
   </si>
   <si>
@@ -1048,6 +1045,27 @@
   </si>
   <si>
     <t>3471586298</t>
+  </si>
+  <si>
+    <t>PUNTA ALTA ALTE SOLIER</t>
+  </si>
+  <si>
+    <t>ZONA</t>
+  </si>
+  <si>
+    <t>URBANA</t>
+  </si>
+  <si>
+    <t>Tipo Domicilio</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER RIO S.A.</t>
+  </si>
+  <si>
+    <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo:  0,00</t>
   </si>
 </sst>
 </file>
@@ -1078,10 +1096,12 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1105,6 +1125,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2032,7 +2053,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2062,46 +2083,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="X1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -2111,10 +2132,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -2135,33 +2156,33 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="P2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2185,16 +2206,16 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
@@ -2202,16 +2223,16 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -2229,42 +2250,42 @@
         <v>13</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -2273,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>2</v>
@@ -2282,54 +2303,54 @@
         <v>13</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="V5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2338,19 +2359,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2373,28 +2394,28 @@
     </row>
     <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2407,10 +2428,10 @@
     </row>
     <row r="8" spans="1:26" s="28" customFormat="1">
       <c r="A8" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2429,7 +2450,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2453,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2462,61 +2483,61 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="O9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="V9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="W9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="X9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="X9" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="Y9" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -2525,42 +2546,42 @@
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="N10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -2569,93 +2590,93 @@
         <v>12</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="47" t="s">
-        <v>29</v>
-      </c>
       <c r="J11" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>35</v>
-      </c>
       <c r="P11" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U11" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="52" t="s">
+      <c r="W11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="52" t="s">
-        <v>41</v>
-      </c>
       <c r="X11" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2672,13 +2693,13 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -2687,35 +2708,35 @@
         <v>12</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="N13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2724,22 +2745,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2763,16 +2784,16 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2789,22 +2810,22 @@
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
@@ -2819,7 +2840,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2840,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2849,13 +2870,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2873,34 +2894,34 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="31" t="s">
+      <c r="H18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -2911,16 +2932,16 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>10</v>
@@ -2929,25 +2950,25 @@
         <v>12</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="34" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
@@ -3285,7 +3306,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3294,48 +3315,48 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="28"/>
@@ -3351,13 +3372,13 @@
     </row>
     <row r="3" spans="1:14" ht="15">
       <c r="A3" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="28"/>
@@ -3373,90 +3394,90 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="G4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I4" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="G5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>252</v>
-      </c>
       <c r="I5" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3480,18 +3501,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>289</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3519,57 +3540,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="C1" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="D1" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="E1" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="F1" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>300</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="C2" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="D2" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="F2" s="80" t="s">
         <v>306</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>307</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3579,51 +3600,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>308</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>309</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="73" t="s">
         <v>310</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="80" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>313</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3633,19 +3654,19 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="79" t="s">
         <v>305</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>306</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3656,25 +3677,25 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="80" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>316</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3683,74 +3704,74 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>318</v>
-      </c>
       <c r="D7" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="79" t="s">
         <v>305</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>306</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="A8" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>303</v>
-      </c>
       <c r="C8" s="78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D8" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="79" t="s">
         <v>305</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>306</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>303</v>
-      </c>
       <c r="C9" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>308</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>309</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3760,22 +3781,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>303</v>
-      </c>
       <c r="C10" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3785,47 +3806,47 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>303</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>303</v>
-      </c>
       <c r="C12" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3835,25 +3856,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>303</v>
-      </c>
       <c r="C13" s="41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D13" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -3882,21 +3903,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3904,21 +3925,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="D3" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3928,10 +3949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3940,18 +3961,21 @@
     <col min="2" max="3" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.2" thickBot="1">
+    <row r="1" spans="1:15" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -3975,322 +3999,332 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="13.8" thickBot="1">
+      <c r="O1" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="27" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="62">
-        <v>1524</v>
+        <v>338</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="M2" s="62">
         <v>1524</v>
       </c>
-      <c r="N2" s="62"/>
-    </row>
-    <row r="3" spans="1:14" ht="13.8" thickBot="1">
+      <c r="N2" s="62">
+        <v>1524</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E3" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="62">
-        <v>1524</v>
+        <v>166</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="M3" s="62">
         <v>1524</v>
       </c>
-      <c r="N3" s="62"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.8" thickBot="1">
+      <c r="N3" s="62">
+        <v>1524</v>
+      </c>
+      <c r="O3" s="62"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="62" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>219</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
       <c r="N4" s="62"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.8" thickBot="1">
+      <c r="O4" s="62"/>
+    </row>
+    <row r="5" spans="1:15" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>198</v>
-      </c>
       <c r="E5" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="62">
-        <v>1524</v>
+        <v>166</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="M5" s="62">
         <v>1524</v>
       </c>
-      <c r="N5" s="62"/>
-    </row>
-    <row r="6" spans="1:14" ht="13.8" thickBot="1">
+      <c r="N5" s="62">
+        <v>1524</v>
+      </c>
+      <c r="O5" s="62"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="D6" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="62" t="s">
-        <v>167</v>
-      </c>
       <c r="L6" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="62">
-        <v>1524</v>
+        <v>166</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="N6" s="62">
         <v>1524</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.8" thickBot="1">
+      <c r="O6" s="62">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="62"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>226</v>
-      </c>
       <c r="D8" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>219</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>231</v>
-      </c>
       <c r="E9" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.8" thickBot="1">
+      <c r="N9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.8" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4299,13 +4333,13 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.8" thickBot="1">
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.8" thickBot="1">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -4315,11 +4349,11 @@
       <c r="G11" s="63"/>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
       <c r="K11" s="41"/>
       <c r="L11" s="41"/>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4351,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
@@ -4359,15 +4393,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>0</v>
@@ -4375,15 +4409,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>0</v>
@@ -4391,15 +4425,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
@@ -4407,15 +4441,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>254</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="90">
         <v>30998801</v>
@@ -4465,151 +4499,151 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="D3" s="90"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="90"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="86" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>258</v>
       </c>
       <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>212</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>213</v>
       </c>
       <c r="D6" s="90"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="90"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>212</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>213</v>
       </c>
       <c r="D8" s="90"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="90"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="D10" s="90"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="90"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>0</v>
@@ -4621,25 +4655,25 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="90"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="89" t="s">
         <v>210</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>211</v>
       </c>
       <c r="D15" s="90"/>
     </row>
@@ -4694,16 +4728,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="96" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>125</v>
       </c>
       <c r="E1" s="97"/>
       <c r="F1" s="98"/>
@@ -4712,13 +4746,13 @@
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A2" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>331</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>332</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="99"/>
@@ -4728,16 +4762,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="100"/>
@@ -4746,16 +4780,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="99"/>
       <c r="F4" s="100"/>
@@ -4764,16 +4798,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -4782,13 +4816,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>3</v>
@@ -4800,10 +4834,10 @@
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
       <c r="A7" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="90"/>
@@ -4814,16 +4848,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="D8" s="91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="90"/>
@@ -4832,7 +4866,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>0</v>
@@ -4841,7 +4875,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -4850,16 +4884,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="D10" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="90"/>
       <c r="F10" s="90"/>
@@ -4868,7 +4902,7 @@
     </row>
     <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>0</v>
@@ -4884,10 +4918,10 @@
     </row>
     <row r="12" spans="1:8" s="41" customFormat="1">
       <c r="A12" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -4898,19 +4932,19 @@
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="86" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
@@ -4918,13 +4952,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>3</v>
@@ -4933,63 +4967,63 @@
         <v>4</v>
       </c>
       <c r="F14" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="H14" s="93" t="s">
         <v>185</v>
-      </c>
-      <c r="H14" s="93" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>332</v>
-      </c>
       <c r="D15" s="91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>188</v>
-      </c>
       <c r="C16" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>190</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5019,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -5028,10 +5062,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -5039,10 +5073,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="113">
         <v>1161138551</v>
@@ -5054,10 +5088,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="113"/>
       <c r="E3" s="113">
@@ -5066,164 +5100,164 @@
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="113"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="113"/>
       <c r="E5" s="114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="114"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="113"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="113"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="113"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="114"/>
       <c r="E10" s="114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="113"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="114"/>
       <c r="E12" s="114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="112" t="s">
-        <v>203</v>
-      </c>
       <c r="C13" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="113"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="112" t="s">
-        <v>203</v>
-      </c>
       <c r="C14" s="112" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="113"/>
     </row>
@@ -5286,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5295,54 +5329,54 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
@@ -5358,16 +5392,16 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
@@ -5383,16 +5417,16 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="117"/>
       <c r="F4" s="86"/>
@@ -5408,16 +5442,16 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
@@ -5433,16 +5467,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="119" t="s">
-        <v>211</v>
-      </c>
       <c r="D6" s="86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
@@ -5458,22 +5492,22 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
@@ -5485,28 +5519,28 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="120" t="s">
-        <v>251</v>
-      </c>
       <c r="H8" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
@@ -5518,25 +5552,25 @@
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
       <c r="A9" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="120" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>251</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="90"/>
@@ -5549,143 +5583,143 @@
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
       <c r="A10" s="134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E10" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="H10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J10" s="122">
         <v>6</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O10" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="120" t="s">
+      <c r="H11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J11" s="122">
         <v>6</v>
       </c>
       <c r="K11" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O11" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="H12" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="118" t="s">
         <v>251</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="118" t="s">
-        <v>252</v>
       </c>
       <c r="J12" s="122">
         <v>6</v>
       </c>
       <c r="K12" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O12" s="124" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -5706,8 +5740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5724,57 +5758,57 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
       <c r="A2" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>283</v>
       </c>
       <c r="E2" s="99"/>
       <c r="F2" s="99"/>
@@ -5786,68 +5820,68 @@
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
     </row>
-    <row r="3" spans="1:13" ht="15">
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="15">
       <c r="A3" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>281</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="120" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="M3" s="116" t="s">
-        <v>20</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="116" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>82</v>
       </c>
       <c r="H4" s="125">
         <v>1</v>
@@ -5856,16 +5890,16 @@
         <v>2019</v>
       </c>
       <c r="J4" s="125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="125">
         <v>19784521</v>
       </c>
       <c r="M4" s="125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5910,7 +5944,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
       <c r="A1" s="133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5919,37 +5953,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -5959,13 +5993,13 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="126"/>
       <c r="E2" s="125"/>
@@ -5986,13 +6020,13 @@
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="126"/>
       <c r="E3" s="125"/>
@@ -6013,13 +6047,13 @@
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="129" t="s">
-        <v>245</v>
-      </c>
       <c r="C4" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="126"/>
       <c r="E4" s="125"/>
@@ -6040,79 +6074,79 @@
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="130" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="H5" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="120" t="s">
+      <c r="I5" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="J5" s="120" t="s">
+      <c r="K5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="K5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="118" t="s">
-        <v>252</v>
-      </c>
       <c r="M5" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P5" s="132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="132">
         <v>33332010</v>
       </c>
       <c r="R5" s="135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="129" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="130" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:19">

--- a/E2ESIT.xlsx
+++ b/E2ESIT.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="355">
   <si>
     <t>N.º Documento</t>
   </si>
@@ -219,12 +219,6 @@
     <t>ProblemaRecargas</t>
   </si>
   <si>
-    <t>11120000000212</t>
-  </si>
-  <si>
-    <t>0818</t>
-  </si>
-  <si>
     <t>22222000</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Ajustes PRE</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>HSBC BANK ARGENTINA S.A.</t>
   </si>
   <si>
@@ -504,9 +495,6 @@
     <t>38452795</t>
   </si>
   <si>
-    <t>3413105403</t>
-  </si>
-  <si>
     <t>19006577</t>
   </si>
   <si>
@@ -876,12 +864,6 @@
     <t>98876765</t>
   </si>
   <si>
-    <t>35879512</t>
-  </si>
-  <si>
-    <t>2932523247</t>
-  </si>
-  <si>
     <t>no esta</t>
   </si>
   <si>
@@ -1032,18 +1014,9 @@
     <t>Accountkey</t>
   </si>
   <si>
-    <t>3000000106910001</t>
-  </si>
-  <si>
     <t>Ron Harward</t>
   </si>
   <si>
-    <t>Harward</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
     <t>3471586298</t>
   </si>
   <si>
@@ -1066,13 +1039,70 @@
   </si>
   <si>
     <t>VISA ARGENTINA S.A. - Cuotas: 1.. 1 Recargo:  0,00</t>
+  </si>
+  <si>
+    <t>23202020</t>
+  </si>
+  <si>
+    <t>2932523644</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3000000048010001</t>
+  </si>
+  <si>
+    <t>Vainillas Valente</t>
+  </si>
+  <si>
+    <t>Valente</t>
+  </si>
+  <si>
+    <t>Vainillas</t>
+  </si>
+  <si>
+    <t>2477676404</t>
+  </si>
+  <si>
+    <t>2259722</t>
+  </si>
+  <si>
+    <t>11120000000223</t>
+  </si>
+  <si>
+    <t>11120000000224</t>
+  </si>
+  <si>
+    <t>11120000000225</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>8000000094810001</t>
+  </si>
+  <si>
+    <t>2477676403</t>
+  </si>
+  <si>
+    <t>3289731</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1175,12 +1205,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF090909"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1552,10 +1576,10 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1592,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1578,22 +1602,19 @@
     <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1638,7 +1659,7 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1686,7 +1707,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1722,7 +1743,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1733,6 +1754,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2031,7 +2055,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -2053,7 +2077,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2083,46 +2107,46 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -2156,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>33</v>
@@ -2206,7 +2230,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>33</v>
@@ -2279,7 +2303,7 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -2315,19 +2339,19 @@
         <v>34</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>38</v>
@@ -2342,15 +2366,15 @@
         <v>20</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2359,19 +2383,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2394,28 +2418,28 @@
     </row>
     <row r="7" spans="1:26" s="28" customFormat="1">
       <c r="A7" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -2431,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>2</v>
@@ -2450,7 +2474,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2474,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
@@ -2483,46 +2507,46 @@
         <v>15</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="U9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="V9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="Z9" s="3"/>
     </row>
@@ -2531,7 +2555,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -2552,13 +2576,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
@@ -2574,7 +2598,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
@@ -2599,37 +2623,37 @@
         <v>28</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O11" s="27" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R11" s="50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S11" s="17" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U11" s="52" t="s">
         <v>38</v>
@@ -2644,39 +2668,39 @@
         <v>20</v>
       </c>
       <c r="Y11" s="53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="28" customFormat="1">
       <c r="A12" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="34"/>
@@ -2693,7 +2717,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
@@ -2714,13 +2738,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>33</v>
@@ -2736,7 +2760,7 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2745,22 +2769,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -2787,13 +2811,13 @@
         <v>43</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
@@ -2810,16 +2834,16 @@
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1">
       <c r="A16" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>27</v>
@@ -2840,7 +2864,7 @@
     </row>
     <row r="17" spans="1:26" s="30" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -2861,7 +2885,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>14</v>
@@ -2870,13 +2894,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="25"/>
@@ -2894,34 +2918,34 @@
     </row>
     <row r="18" spans="1:26" s="28" customFormat="1">
       <c r="A18" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="J18" s="31" t="s">
         <v>69</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>71</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -2932,7 +2956,7 @@
     </row>
     <row r="19" spans="1:26" s="28" customFormat="1">
       <c r="A19" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>59</v>
@@ -2953,13 +2977,13 @@
         <v>47</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="31" t="s">
         <v>33</v>
@@ -3289,7 +3313,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -3306,7 +3330,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3315,37 +3339,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15">
@@ -3353,10 +3377,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="28"/>
@@ -3375,12 +3399,14 @@
         <v>24</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="37"/>
+        <v>344</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>352</v>
+      </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
@@ -3394,94 +3420,95 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="11" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>176</v>
+        <v>344</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3501,18 +3528,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="41" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3540,57 +3567,57 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1">
       <c r="A1" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>294</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" thickBot="1">
       <c r="A2" s="78" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81"/>
@@ -3600,51 +3627,51 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" thickBot="1">
       <c r="A3" s="78" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B3" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>302</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>308</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81"/>
       <c r="I3" s="41"/>
       <c r="J3" s="82" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K3" s="73" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="78" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81"/>
@@ -3654,19 +3681,19 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="78" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -3677,25 +3704,25 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="78" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H6" s="81"/>
       <c r="I6" s="41"/>
@@ -3704,74 +3731,74 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="78" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
       <c r="I7" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="A8" s="78" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80"/>
       <c r="H8" s="84" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="D9" s="78" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>302</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>308</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81"/>
@@ -3781,22 +3808,22 @@
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
@@ -3806,47 +3833,47 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3856,25 +3883,25 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="41" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
@@ -3903,21 +3930,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="71"/>
@@ -3925,21 +3952,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +3996,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -3999,54 +4026,54 @@
         <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27" thickBot="1">
       <c r="A2" s="62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="62" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K2" s="66" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L2" s="62" t="s">
         <v>33</v>
@@ -4058,39 +4085,39 @@
         <v>1524</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1">
       <c r="A3" s="62" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I3" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L3" s="62" t="s">
         <v>33</v>
@@ -4105,28 +4132,28 @@
     </row>
     <row r="4" spans="1:15" ht="13.8" thickBot="1">
       <c r="A4" s="62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I4" s="62"/>
       <c r="J4" s="62"/>
@@ -4137,34 +4164,34 @@
     </row>
     <row r="5" spans="1:15" ht="13.8" thickBot="1">
       <c r="A5" s="62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I5" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>33</v>
@@ -4179,37 +4206,37 @@
     </row>
     <row r="6" spans="1:15" ht="13.8" thickBot="1">
       <c r="A6" s="62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M6" s="62" t="s">
         <v>33</v>
@@ -4223,19 +4250,19 @@
     </row>
     <row r="7" spans="1:15" ht="13.8" thickBot="1">
       <c r="A7" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
@@ -4249,28 +4276,28 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="66" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -4281,34 +4308,34 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I9" s="34" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L9" s="34" t="s">
         <v>33</v>
@@ -4324,7 +4351,7 @@
     <row r="10" spans="1:15" ht="13.8" thickBot="1">
       <c r="A10" s="41"/>
       <c r="B10" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4385,73 +4412,73 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="109" t="s">
-        <v>143</v>
+      <c r="A2" s="108" t="s">
+        <v>140</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="93" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="109" t="s">
-        <v>144</v>
+      <c r="A4" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="93" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="109" t="s">
-        <v>161</v>
+      <c r="A6" s="108" t="s">
+        <v>157</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="93" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="90">
+      <c r="A9" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="89">
         <v>30998801</v>
       </c>
     </row>
@@ -4464,17 +4491,17 @@
       <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="110"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="89"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="90"/>
+      <c r="B13" s="89"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="90"/>
+      <c r="B14" s="89"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="90"/>
+      <c r="B15" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4487,7 +4514,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4499,212 +4526,213 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="90"/>
+      <c r="C1" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="90"/>
+        <v>325</v>
+      </c>
+      <c r="D2" s="89"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="90"/>
+        <v>325</v>
+      </c>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="90"/>
+      <c r="C4" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="89"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="43" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" s="90"/>
+        <v>253</v>
+      </c>
+      <c r="D5" s="89"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="90"/>
+        <v>208</v>
+      </c>
+      <c r="D6" s="89"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="90"/>
+      <c r="C7" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="89"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="108" t="s">
-        <v>234</v>
+      <c r="A8" s="107" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="90"/>
+        <v>208</v>
+      </c>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="1:4" ht="15.6">
-      <c r="A9" s="107" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="90"/>
+      <c r="C9" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="89"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>330</v>
+      <c r="A10" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>336</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="90"/>
+        <v>337</v>
+      </c>
+      <c r="D10" s="89"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="90"/>
+      <c r="C11" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" s="90"/>
+        <v>325</v>
+      </c>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="90"/>
+      <c r="B14" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="90"/>
+      <c r="B15" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4713,7 +4741,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -4728,306 +4756,312 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-    </row>
-    <row r="2" spans="1:8" s="41" customFormat="1" ht="15.6">
+      <c r="C1" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+    </row>
+    <row r="2" spans="1:8" s="41" customFormat="1" ht="16.2">
       <c r="A2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>331</v>
+      <c r="B2" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>353</v>
       </c>
       <c r="D2" s="33"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6">
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2">
       <c r="A3" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>62</v>
+        <v>160</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>353</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6">
+        <v>348</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.2">
       <c r="A4" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>62</v>
+        <v>161</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>353</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>347</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+    </row>
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>62</v>
+        <v>142</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>353</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="86"/>
+        <v>346</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>349</v>
+      </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
       <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="96" t="s">
+      <c r="C6" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999">
-      <c r="A7" s="108" t="s">
-        <v>194</v>
+      <c r="A7" s="107" t="s">
+        <v>190</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+        <v>276</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="103"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="D9" s="93" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>330</v>
+      <c r="A10" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>336</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+        <v>340</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:8" s="41" customFormat="1" ht="15.6">
       <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:8" s="41" customFormat="1">
       <c r="A12" s="44" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
+        <v>165</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
     </row>
     <row r="13" spans="1:8" s="41" customFormat="1" ht="15">
       <c r="A13" s="44" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+        <v>139</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
     </row>
     <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="95" t="s">
+      <c r="G14" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="89"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="93" t="s">
+      <c r="B16" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="H14" s="93" t="s">
+      <c r="C16" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="89" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="108" t="s">
+      <c r="E16" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="G16" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5039,7 +5073,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:A14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5053,7 +5087,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -5062,230 +5096,230 @@
         <v>16</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="113">
+      <c r="B2" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="112">
         <v>1161138551</v>
       </c>
-      <c r="E2" s="113"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113">
+      <c r="B3" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112">
         <v>1161138552</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="B4" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="112"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="112"/>
+      <c r="E5" s="113" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="114"/>
+        <v>137</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="113"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="113"/>
+        <v>137</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="113"/>
+        <v>167</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="113"/>
+      <c r="E8" s="112"/>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>203</v>
-      </c>
       <c r="D9" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="113"/>
+        <v>201</v>
+      </c>
+      <c r="E9" s="112"/>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114" t="s">
-        <v>206</v>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
       <c r="A11" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="113"/>
+      <c r="D11" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="112" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="113" t="s">
         <v>204</v>
-      </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15">
       <c r="A13" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="113"/>
+        <v>197</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="113"/>
+        <v>197</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="110"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="110"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5297,7 +5331,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5320,7 +5354,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5329,51 +5363,51 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>176</v>
+        <v>261</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D2" s="86" t="s">
         <v>42</v>
@@ -5392,45 +5426,45 @@
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>176</v>
+        <v>265</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E3" s="86"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="33"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>176</v>
+        <v>266</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="116"/>
       <c r="F4" s="86"/>
-      <c r="G4" s="118"/>
+      <c r="G4" s="117"/>
       <c r="H4" s="33"/>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5442,20 +5476,20 @@
     </row>
     <row r="5" spans="1:15" ht="15.6" thickBot="1">
       <c r="A5" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>176</v>
+        <v>267</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E5" s="86"/>
       <c r="F5" s="86"/>
-      <c r="G5" s="118"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="33"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5467,20 +5501,20 @@
     </row>
     <row r="6" spans="1:15" ht="15.6" thickBot="1">
       <c r="A6" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>210</v>
+        <v>268</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>206</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E6" s="86"/>
       <c r="F6" s="86"/>
-      <c r="G6" s="118"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="33"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5492,244 +5526,244 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>176</v>
+        <v>269</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>172</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+        <v>275</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>176</v>
+        <v>151</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="120" t="s">
-        <v>248</v>
+        <v>158</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>244</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="120" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" thickBot="1">
       <c r="A9" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="120" t="s">
-        <v>248</v>
+        <v>158</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>244</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" thickBot="1">
-      <c r="A10" s="134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="121" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>248</v>
+      <c r="A10" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="119" t="s">
+        <v>244</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="120" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="G10" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="J10" s="122">
+      <c r="I10" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="121">
         <v>6</v>
       </c>
-      <c r="K10" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="116" t="s">
-        <v>263</v>
-      </c>
-      <c r="M10" s="123" t="s">
+      <c r="K10" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="115" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="122" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="O10" s="124" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="O10" s="123" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.6" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>176</v>
+        <v>263</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D11" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="120" t="s">
-        <v>248</v>
+      <c r="E11" s="119" t="s">
+        <v>244</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="G11" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="J11" s="122">
+      <c r="I11" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11" s="121">
         <v>6</v>
       </c>
-      <c r="K11" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="116" t="s">
-        <v>263</v>
+      <c r="K11" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>259</v>
       </c>
       <c r="M11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="O11" s="124" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="O11" s="123" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" thickBot="1">
       <c r="A12" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>176</v>
+        <v>264</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>172</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="120" t="s">
-        <v>248</v>
+        <v>188</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>244</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="120" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>246</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="J12" s="122">
+      <c r="I12" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" s="121">
         <v>6</v>
       </c>
-      <c r="K12" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="116" t="s">
-        <v>263</v>
+      <c r="K12" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="115" t="s">
+        <v>259</v>
       </c>
       <c r="M12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="O12" s="124" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="O12" s="123" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="110"/>
+      <c r="A13" s="109"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="110"/>
+      <c r="A14" s="109"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="110"/>
+      <c r="A15" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5741,7 +5775,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -5758,95 +5792,95 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="16.2">
       <c r="A2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="B2" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" s="41" customFormat="1" ht="15">
       <c r="A3" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>343</v>
+        <v>336</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>334</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>344</v>
+        <v>65</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>335</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="118" t="s">
-        <v>93</v>
+      <c r="I3" s="117" t="s">
+        <v>90</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>38</v>
@@ -5857,62 +5891,64 @@
       <c r="L3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="116" t="s">
-        <v>334</v>
+      <c r="M3" s="115" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
       <c r="A4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="125">
+      <c r="H4" s="124">
         <v>1</v>
       </c>
-      <c r="I4" s="125">
+      <c r="I4" s="124">
         <v>2019</v>
       </c>
-      <c r="J4" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="125" t="s">
+      <c r="J4" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="125">
+      <c r="L4" s="124">
         <v>19784521</v>
       </c>
-      <c r="M4" s="125" t="s">
-        <v>82</v>
+      <c r="M4" s="124" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="108"/>
+      <c r="A5" s="107"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="110"/>
+      <c r="A6" s="109"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="110"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="110"/>
+      <c r="A7" s="109"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="109"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5943,8 +5979,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.6">
-      <c r="A1" s="133" t="s">
-        <v>111</v>
+      <c r="A1" s="132" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5953,37 +5989,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="3"/>
@@ -5993,167 +6029,167 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
+        <v>89</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
+        <v>143</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
     </row>
     <row r="4" spans="1:19" s="41" customFormat="1" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
+        <v>239</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="129" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="130" t="s">
+      <c r="J5" s="119" t="s">
         <v>246</v>
-      </c>
-      <c r="G5" s="120" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" s="120" t="s">
-        <v>250</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="118" t="s">
-        <v>251</v>
+      <c r="L5" s="117" t="s">
+        <v>247</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="P5" s="132" t="s">
+        <v>259</v>
+      </c>
+      <c r="P5" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="132">
+      <c r="Q5" s="131">
         <v>33332010</v>
       </c>
       <c r="R5" s="135" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="130" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="131" t="s">
+      <c r="A6" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="128" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="130" t="s">
-        <v>246</v>
+      <c r="F6" s="129" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="108"/>
+      <c r="A7" s="107"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="108"/>
+      <c r="A8" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
